--- a/Gerber/CPL_IMX585.xlsx
+++ b/Gerber/CPL_IMX585.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will1\Dropbox\KiCad\IMX585_MIPI_Breakout_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4CB182-4217-4A9E-A51E-B9608EF90D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6351D36A-36FD-4FFC-823E-4EEDE5C06E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14850" yWindow="2602" windowWidth="22478" windowHeight="16381" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4650" windowWidth="17048" windowHeight="12817" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
   <si>
     <t>Designator</t>
   </si>
@@ -338,6 +338,21 @@
   </si>
   <si>
     <t>U11</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>C64</t>
+  </si>
+  <si>
+    <t>C65</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>U12</t>
   </si>
 </sst>
 </file>
@@ -688,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -1318,10 +1333,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>147.38499999999999</v>
+        <v>146.9</v>
       </c>
       <c r="C37" s="2">
-        <v>-88.85</v>
+        <v>-90.25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>85</v>
@@ -1403,7 +1418,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>135.1</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="C42" s="2">
         <v>-109.4</v>
@@ -1525,7 +1540,7 @@
         <v>141.05000000000001</v>
       </c>
       <c r="C49" s="2">
-        <v>-110.45</v>
+        <v>-110.5</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>85</v>
@@ -1641,7 +1656,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>153.4</v>
+        <v>156.6</v>
       </c>
       <c r="C56" s="2">
         <v>-89</v>
@@ -1658,7 +1673,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>154.25</v>
+        <v>157.44999999999999</v>
       </c>
       <c r="C57" s="2">
         <v>-94.85</v>
@@ -1774,64 +1789,64 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2">
-        <v>159.69999999999999</v>
+        <v>153.28749999999999</v>
       </c>
       <c r="C64" s="2">
-        <v>-113.9</v>
+        <v>-92.6</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E64" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2">
-        <v>136.15</v>
+        <v>151.435</v>
       </c>
       <c r="C65" s="2">
-        <v>-122.55</v>
+        <v>-92.6</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E65" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2">
-        <v>141.05000000000001</v>
+        <v>153.28749999999999</v>
       </c>
       <c r="C66" s="2">
-        <v>-113.45</v>
+        <v>-93.6</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E66" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2">
-        <v>157.9</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="C67" s="2">
-        <v>-100.4</v>
+        <v>-113.9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>85</v>
@@ -1842,13 +1857,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2">
-        <v>157.9</v>
+        <v>136.15</v>
       </c>
       <c r="C68" s="2">
-        <v>-101.9</v>
+        <v>-122.55</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>85</v>
@@ -1859,30 +1874,30 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="2">
+        <v>141.05000000000001</v>
+      </c>
+      <c r="C69" s="2">
+        <v>-113.45</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="2">
         <v>90</v>
-      </c>
-      <c r="B69" s="2">
-        <v>157.9</v>
-      </c>
-      <c r="C69" s="2">
-        <v>-103.4</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2">
         <v>157.9</v>
       </c>
       <c r="C70" s="2">
-        <v>-104.875</v>
+        <v>-100.4</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>85</v>
@@ -1893,13 +1908,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2">
         <v>157.9</v>
       </c>
       <c r="C71" s="2">
-        <v>-106.375</v>
+        <v>-101.9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>85</v>
@@ -1910,64 +1925,64 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2">
-        <v>164.95</v>
+        <v>157.9</v>
       </c>
       <c r="C72" s="2">
-        <v>-92.3</v>
+        <v>-103.4</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E72" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2">
-        <v>163.33750000000001</v>
+        <v>157.9</v>
       </c>
       <c r="C73" s="2">
-        <v>-104.9</v>
+        <v>-104.875</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E73" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2">
-        <v>143.61000000000001</v>
+        <v>157.9</v>
       </c>
       <c r="C74" s="2">
-        <v>-88.33</v>
+        <v>-106.375</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E74" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B75" s="2">
-        <v>137.05000000000001</v>
+        <v>164.95</v>
       </c>
       <c r="C75" s="2">
-        <v>-88.28</v>
+        <v>-92.3</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>85</v>
@@ -1978,13 +1993,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B76" s="2">
-        <v>132.05000000000001</v>
+        <v>163.33750000000001</v>
       </c>
       <c r="C76" s="2">
-        <v>-88.28</v>
+        <v>-104.9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>85</v>
@@ -1995,13 +2010,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B77" s="2">
-        <v>164.45</v>
+        <v>143.61000000000001</v>
       </c>
       <c r="C77" s="2">
-        <v>-117.7</v>
+        <v>-88.33</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>85</v>
@@ -2012,13 +2027,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2">
-        <v>133.6</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="C78" s="2">
-        <v>-116.1</v>
+        <v>-88.28</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>85</v>
@@ -2029,47 +2044,47 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>139.15</v>
+        <v>132.05000000000001</v>
       </c>
       <c r="C79" s="2">
-        <v>-118.05</v>
+        <v>-88.28</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E79" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2">
-        <v>139.15</v>
+        <v>164.45</v>
       </c>
       <c r="C80" s="2">
-        <v>-119.1</v>
+        <v>-117.7</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E80" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>129.77500000000001</v>
+        <v>133.6</v>
       </c>
       <c r="C81" s="2">
-        <v>-97.474999999999994</v>
+        <v>-116.1</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>85</v>
@@ -2080,64 +2095,64 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>129.77500000000001</v>
+        <v>139.15</v>
       </c>
       <c r="C82" s="2">
-        <v>-94.474999999999994</v>
+        <v>-118.05</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E82" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B83" s="2">
-        <v>129.77500000000001</v>
+        <v>139.15</v>
       </c>
       <c r="C83" s="2">
-        <v>-91.474999999999994</v>
+        <v>-119.1</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E83" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B84" s="2">
-        <v>147.69999999999999</v>
+        <v>129.77500000000001</v>
       </c>
       <c r="C84" s="2">
-        <v>-113.4</v>
+        <v>-97.474999999999994</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E84" s="2">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B85" s="2">
-        <v>131.30000000000001</v>
+        <v>129.77500000000001</v>
       </c>
       <c r="C85" s="2">
-        <v>-105</v>
+        <v>-94.474999999999994</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>85</v>
@@ -2148,217 +2163,217 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B86" s="2">
-        <v>144.11000000000001</v>
+        <v>129.77500000000001</v>
       </c>
       <c r="C86" s="2">
-        <v>-91.8</v>
+        <v>-91.474999999999994</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E86" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" s="2">
-        <v>135.35</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="C87" s="2">
-        <v>-98.7</v>
+        <v>-113.4</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E87" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2">
-        <v>155.44999999999999</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>-122.35</v>
+        <v>-105</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B89" s="2">
-        <v>130.30000000000001</v>
+        <v>144.1</v>
       </c>
       <c r="C89" s="2">
-        <v>-105</v>
+        <v>-93.05</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E89" s="2">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B90" s="2">
-        <v>128.4</v>
+        <v>135.35</v>
       </c>
       <c r="C90" s="2">
-        <v>-113</v>
+        <v>-98.7</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E90" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2">
-        <v>127.4</v>
+        <v>143.6</v>
       </c>
       <c r="C91" s="2">
-        <v>-113</v>
+        <v>-92.45</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="2">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="2">
-        <v>136.30000000000001</v>
+        <v>155.44999999999999</v>
       </c>
       <c r="C92" s="2">
-        <v>-117.95</v>
+        <v>-122.35</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E92" s="2">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2">
-        <v>126.875</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="C93" s="2">
-        <v>-107.925</v>
+        <v>-105</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E93" s="2">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2">
-        <v>130.30000000000001</v>
+        <v>128.4</v>
       </c>
       <c r="C94" s="2">
-        <v>-108.1</v>
+        <v>-113</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E94" s="2">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2">
-        <v>147.035</v>
+        <v>127.4</v>
       </c>
       <c r="C95" s="2">
-        <v>-91</v>
+        <v>-113</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E95" s="2">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2">
-        <v>142.9</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="C96" s="2">
-        <v>-110.75</v>
+        <v>-117.95</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E96" s="2">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B97" s="2">
-        <v>146.6</v>
+        <v>126.875</v>
       </c>
       <c r="C97" s="2">
-        <v>-119.7</v>
+        <v>-107.925</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E97" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2">
-        <v>154.69999999999999</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="C98" s="2">
-        <v>-119.7</v>
+        <v>-108.1</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>85</v>
@@ -2369,89 +2384,139 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B99" s="2">
-        <v>153.44999999999999</v>
+        <v>146.54</v>
       </c>
       <c r="C99" s="2">
-        <v>-92</v>
+        <v>-92.25</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E99" s="2">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B100" s="2">
-        <v>158.6</v>
+        <v>142.9</v>
       </c>
       <c r="C100" s="2">
-        <v>-116.5</v>
+        <v>-111</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E100" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" s="2">
+        <v>146.6</v>
+      </c>
+      <c r="C101" s="2">
+        <v>-119.7</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="2">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="C102" s="2">
+        <v>-119.7</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="2">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="2">
+        <v>156.65</v>
+      </c>
+      <c r="C103" s="2">
+        <v>-92</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" s="2">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="2">
+        <v>158.6</v>
+      </c>
+      <c r="C104" s="2">
+        <v>-116.5</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B105" s="2">
         <v>128.4</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C105" s="2">
         <v>-117.4</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="D105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2">
+        <v>152.6</v>
+      </c>
+      <c r="C106" s="2">
+        <v>-90.5</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2"/>
